--- a/Texts/Город Сокровищ/Все персонажи/Слакот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Слакот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -46,6 +46,57 @@
   </si>
   <si>
     <t xml:space="preserve"> Éòòìåäïâàóû...[K]òóïìûëï ôòéìéê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have no motivation at all…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why did we even bother forming\nan exploration team...?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0604.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У нас совсем нет мотивации...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зачем мы вообще пытались создать\nкоманду исследователей?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô îàò òïâòåí îåó íïóéâàøéé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàœåí íú âïïáþå ðúóàìéòû òïèäàóû\nëïíàîäô éòòìåäïâàóåìåê?..</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um0606.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other teams are losing their\nstomachs for exploring because of the awful\nstench lately…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But it hasn\'t affected us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yeah.[K] How could we get any less\nmotivated than we are now...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Другие команды нехорошо себя\nчувствуют из-за ужасного запаха...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но на нас он не повлиял.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да.[K] Как мы можем быть ещё менее\nмотивированы, чем сейчас?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äñôãéå ëïíàîäú îåöïñïšï òåáÿ\nœôâòóâôýó éè-èà ôçàòîïãï èàðàöà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îà îàò ïî îå ðïâìéÿì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà.[K] Ëàë íú íïçåí áúóû åþæ íåîåå\níïóéâéñïâàîú, œåí òåêœàò?..</t>
   </si>
 </sst>
 </file>
@@ -76,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -108,11 +159,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -127,6 +198,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -409,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,20 +526,97 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>176</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>154</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8">
+        <v>157</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>127</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>130</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>135</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Слакот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Слакот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Äà.[K] Ëàë íú íïçåí áúóû åþæ íåîåå\níïóéâéñïâàîú, œåí òåêœàò?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Just lying here takes too\nmuch effort…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1110.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь даже лежать слишком\nутомительно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû äàçå ìåçàóû òìéšëïí\nôóïíéóåìûîï…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1113.ssb</t>
   </si>
 </sst>
 </file>
@@ -492,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,17 +621,40 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
         <v>135</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4">
+        <v>105</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Слакот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Слакот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -112,6 +112,30 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/um1113.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1319.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time stopping...[K]might not make\nany difference to us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re not moving either way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Остановка времени...[K] Для нас\nникакой разницы не будет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы и так не двигаемся.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïòóàîïâëà âñåíåîé...[K] Äìÿ îàò\nîéëàëïê ñàèîéøú îå áôäåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú é óàë îå äâéãàåíòÿ.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1405.ssb</t>
   </si>
 </sst>
 </file>
@@ -507,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,8 +677,46 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>86</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Слакот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Слакот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>SCRIPT/T01P02A/um1405.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting excited over the planet\'s\nparalysis takes too much effort…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2205.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Беспокоиться о планетарном\nпараличе слишком утомительно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áåòðïëïéóûòÿ ï ðìàîåóàñîïí\nðàñàìéœå òìéšëïí ôóïíéóåìûîï...</t>
   </si>
 </sst>
 </file>
@@ -531,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,20 +715,37 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="8">
         <v>86</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Слакот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Слакот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -148,6 +148,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Áåòðïëïéóûòÿ ï ðìàîåóàñîïí\nðàñàìéœå òìéšëïí ôóïíéóåìûîï...</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What\'s a Recycle Shop?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Learning things takes too\nmuch effort…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что такое Центр Переработки?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Изучение нового отнимает много\nсил...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï óàëïå Øåîóñ Ðåñåñàáïóëé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éèôœåîéå îïâïãï ïóîéíàåó íîïãï\nòéì...</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0306.ssb</t>
   </si>
 </sst>
 </file>
@@ -178,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -230,11 +254,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -261,6 +296,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,20 +773,54 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="10">
         <v>64</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="11" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Слакот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Слакот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -172,6 +172,27 @@
   </si>
   <si>
     <t>SCRIPT/P01P04A/us0306.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2308.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exploring is far too much\neffort...[K] Maybe we\'ll go to the Hot Spring…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But going to the Hot Spring from\nhere takes too much effort…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Исследования утомляют...[K] Может,\nсходить к Горячим Источникам...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но путь к Горячим Источникам\nтак утомителен...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éòòìåäïâàîéÿ ôóïíìÿýó...[K] Íïçåó,\nòöïäéóû ë Ãïñÿœéí Éòóïœîéëàí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ðôóû ë Ãïñÿœéí Éòóïœîéëàí\nóàë ôóïíéóåìåî...</t>
   </si>
 </sst>
 </file>
@@ -584,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,20 +828,51 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="8">
         <v>45</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="9" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
